--- a/Muelle/Datos muelle.xlsx
+++ b/Muelle/Datos muelle.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gbast\OneDrive\Escritorio\Física\tecnicas experimentales\Memorias\Muelle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437CEEB6-12B7-4002-BCAA-CF545BEB0837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5703E130-7F34-48B4-B237-9F68F7B1B036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="182">
   <si>
     <t>masas (g)</t>
   </si>
@@ -114,18 +114,503 @@
   </si>
   <si>
     <t>Inc t^2</t>
+  </si>
+  <si>
+    <t>4pi^2m</t>
+  </si>
+  <si>
+    <t>masas (kg)</t>
+  </si>
+  <si>
+    <t>4,24</t>
+  </si>
+  <si>
+    <t>0,424</t>
+  </si>
+  <si>
+    <t>0,021</t>
+  </si>
+  <si>
+    <t>11,94222</t>
+  </si>
+  <si>
+    <t>7,07</t>
+  </si>
+  <si>
+    <t>0,707</t>
+  </si>
+  <si>
+    <t>0,035</t>
+  </si>
+  <si>
+    <t>8,47</t>
+  </si>
+  <si>
+    <t>0,847</t>
+  </si>
+  <si>
+    <t>0,717</t>
+  </si>
+  <si>
+    <t>0,042</t>
+  </si>
+  <si>
+    <t>27,72964</t>
+  </si>
+  <si>
+    <t>9,97</t>
+  </si>
+  <si>
+    <t>0,997</t>
+  </si>
+  <si>
+    <t>0,994</t>
+  </si>
+  <si>
+    <t>31,66169</t>
+  </si>
+  <si>
+    <t>10,56</t>
+  </si>
+  <si>
+    <t>1,056</t>
+  </si>
+  <si>
+    <t>1,115</t>
+  </si>
+  <si>
+    <t>0,053</t>
+  </si>
+  <si>
+    <t>35,61743</t>
+  </si>
+  <si>
+    <t>11,22</t>
+  </si>
+  <si>
+    <t>1,122</t>
+  </si>
+  <si>
+    <t>1,259</t>
+  </si>
+  <si>
+    <t>0,056</t>
+  </si>
+  <si>
+    <t>39,48237</t>
+  </si>
+  <si>
+    <t>11,72</t>
+  </si>
+  <si>
+    <t>1,172</t>
+  </si>
+  <si>
+    <t>1,374</t>
+  </si>
+  <si>
+    <t>0,059</t>
+  </si>
+  <si>
+    <t>41,46813</t>
+  </si>
+  <si>
+    <t>12,07</t>
+  </si>
+  <si>
+    <t>1,207</t>
+  </si>
+  <si>
+    <t>1,457</t>
+  </si>
+  <si>
+    <t>43,45389</t>
+  </si>
+  <si>
+    <t>12,19</t>
+  </si>
+  <si>
+    <t>1,219</t>
+  </si>
+  <si>
+    <t>1,486</t>
+  </si>
+  <si>
+    <t>0,061</t>
+  </si>
+  <si>
+    <t>12,62</t>
+  </si>
+  <si>
+    <t>1,262</t>
+  </si>
+  <si>
+    <t>1,593</t>
+  </si>
+  <si>
+    <t>0,063</t>
+  </si>
+  <si>
+    <t>4,02680</t>
+  </si>
+  <si>
+    <t>19,84580</t>
+  </si>
+  <si>
+    <t>45,45940</t>
+  </si>
+  <si>
+    <t>0,10200</t>
+  </si>
+  <si>
+    <t>0,30250</t>
+  </si>
+  <si>
+    <t>0,50270</t>
+  </si>
+  <si>
+    <t>0,70240</t>
+  </si>
+  <si>
+    <t>0,80200</t>
+  </si>
+  <si>
+    <t>0,90220</t>
+  </si>
+  <si>
+    <t>1,00010</t>
+  </si>
+  <si>
+    <t>1,05040</t>
+  </si>
+  <si>
+    <t>1,10070</t>
+  </si>
+  <si>
+    <t>1,15150</t>
+  </si>
+  <si>
+    <t>0,050</t>
+  </si>
+  <si>
+    <t>0,060</t>
+  </si>
+  <si>
+    <t>0,180</t>
+  </si>
+  <si>
+    <t>0,500</t>
+  </si>
+  <si>
+    <t>Minimos cuadrados tabla</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>x^2</t>
+  </si>
+  <si>
+    <t>y^2</t>
+  </si>
+  <si>
+    <t>xy</t>
+  </si>
+  <si>
+    <t>10,2</t>
+  </si>
+  <si>
+    <t>0,09996</t>
+  </si>
+  <si>
+    <t>104,04</t>
+  </si>
+  <si>
+    <t>0,00999</t>
+  </si>
+  <si>
+    <t>1,01959</t>
+  </si>
+  <si>
+    <t>30,25</t>
+  </si>
+  <si>
+    <t>0,29645</t>
+  </si>
+  <si>
+    <t>915,0625</t>
+  </si>
+  <si>
+    <t>0,08788</t>
+  </si>
+  <si>
+    <t>8,96761</t>
+  </si>
+  <si>
+    <t>50,27</t>
+  </si>
+  <si>
+    <t>0,49265</t>
+  </si>
+  <si>
+    <t>2527,0729</t>
+  </si>
+  <si>
+    <t>0,2427</t>
+  </si>
+  <si>
+    <t>24,76531</t>
+  </si>
+  <si>
+    <t>70,24</t>
+  </si>
+  <si>
+    <t>0,68835</t>
+  </si>
+  <si>
+    <t>4933,6576</t>
+  </si>
+  <si>
+    <t>0,47383</t>
+  </si>
+  <si>
+    <t>48,34984</t>
+  </si>
+  <si>
+    <t>80,2</t>
+  </si>
+  <si>
+    <t>0,78596</t>
+  </si>
+  <si>
+    <t>6432,04</t>
+  </si>
+  <si>
+    <t>0,61773</t>
+  </si>
+  <si>
+    <t>63,03399</t>
+  </si>
+  <si>
+    <t>90,22</t>
+  </si>
+  <si>
+    <t>0,88416</t>
+  </si>
+  <si>
+    <t>8139,6484</t>
+  </si>
+  <si>
+    <t>0,78173</t>
+  </si>
+  <si>
+    <t>79,76855</t>
+  </si>
+  <si>
+    <t>100,01</t>
+  </si>
+  <si>
+    <t>0,9801</t>
+  </si>
+  <si>
+    <t>10002,0001</t>
+  </si>
+  <si>
+    <t>0,96059</t>
+  </si>
+  <si>
+    <t>98,0196</t>
+  </si>
+  <si>
+    <t>105,04</t>
+  </si>
+  <si>
+    <t>1,02939</t>
+  </si>
+  <si>
+    <t>11033,4016</t>
+  </si>
+  <si>
+    <t>1,05965</t>
+  </si>
+  <si>
+    <t>108,12734</t>
+  </si>
+  <si>
+    <t>110,07</t>
+  </si>
+  <si>
+    <t>1,07869</t>
+  </si>
+  <si>
+    <t>12115,4049</t>
+  </si>
+  <si>
+    <t>1,16356</t>
+  </si>
+  <si>
+    <t>118,73097</t>
+  </si>
+  <si>
+    <t>115,15</t>
+  </si>
+  <si>
+    <t>1,12847</t>
+  </si>
+  <si>
+    <t>13259,5225</t>
+  </si>
+  <si>
+    <t>1,27344</t>
+  </si>
+  <si>
+    <t>129,94332</t>
+  </si>
+  <si>
+    <t>69461,8505</t>
+  </si>
+  <si>
+    <t>6,67112</t>
+  </si>
+  <si>
+    <t>680,72613</t>
+  </si>
+  <si>
+    <t>y-bx</t>
+  </si>
+  <si>
+    <t>(y-bx)^2</t>
+  </si>
+  <si>
+    <t>b=3,0335</t>
+  </si>
+  <si>
+    <t>-30,84174</t>
+  </si>
+  <si>
+    <t>951,2129262</t>
+  </si>
+  <si>
+    <t>-91,466925</t>
+  </si>
+  <si>
+    <t>8366,198369</t>
+  </si>
+  <si>
+    <t>-152,001399</t>
+  </si>
+  <si>
+    <t>23104,4253</t>
+  </si>
+  <si>
+    <t>-212,384688</t>
+  </si>
+  <si>
+    <t>45107,2557</t>
+  </si>
+  <si>
+    <t>-242,50074</t>
+  </si>
+  <si>
+    <t>58806,6089</t>
+  </si>
+  <si>
+    <t>-272,798214</t>
+  </si>
+  <si>
+    <t>74418,86556</t>
+  </si>
+  <si>
+    <t>-302,400237</t>
+  </si>
+  <si>
+    <t>91445,90334</t>
+  </si>
+  <si>
+    <t>-317,609448</t>
+  </si>
+  <si>
+    <t>100875,7615</t>
+  </si>
+  <si>
+    <t>-332,818659</t>
+  </si>
+  <si>
+    <t>110768,2598</t>
+  </si>
+  <si>
+    <t>-348,179055</t>
+  </si>
+  <si>
+    <t>121228,6543</t>
+  </si>
+  <si>
+    <t>635073,1457</t>
+  </si>
+  <si>
+    <t>0,16</t>
+  </si>
+  <si>
+    <t>0,13</t>
+  </si>
+  <si>
+    <t>0,517</t>
+  </si>
+  <si>
+    <t>0,062</t>
+  </si>
+  <si>
+    <t>0,445</t>
+  </si>
+  <si>
+    <t>0,398</t>
+  </si>
+  <si>
+    <t>0,887</t>
+  </si>
+  <si>
+    <t>0,476</t>
+  </si>
+  <si>
+    <t>0,44</t>
+  </si>
+  <si>
+    <t>0,706</t>
+  </si>
+  <si>
+    <t>0,052</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
-    <numFmt numFmtId="178" formatCode="0.000000000"/>
+    <numFmt numFmtId="166" formatCode="0.000000000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,10 +636,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -166,9 +652,18 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -481,32 +976,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S57"/>
+  <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40:J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
+      <c r="F1" t="s">
+        <v>88</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -516,11 +1017,32 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="G2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L2" t="s">
+        <v>147</v>
+      </c>
+      <c r="M2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>10.199999999999999</v>
       </c>
@@ -528,23 +1050,62 @@
         <v>9.9959999999999993E-2</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C12" si="0">G2/1000</f>
+        <f>D3/1000</f>
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3">
-        <v>99</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="D3">
+        <v>33</v>
+      </c>
+      <c r="F3">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="G3" s="2">
+        <v>9.9959999999999993E-2</v>
+      </c>
+      <c r="H3" s="2">
+        <f>F3^2</f>
+        <v>104.03999999999999</v>
+      </c>
+      <c r="I3" s="2">
+        <f>G3^2</f>
+        <v>9.992001599999998E-3</v>
+      </c>
+      <c r="J3" s="2">
+        <f>F3*G3</f>
+        <v>1.0195919999999998</v>
+      </c>
       <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L3">
+        <f>G3-3.0335*F3</f>
+        <v>-30.841739999999998</v>
+      </c>
+      <c r="M3">
+        <f>L3^2</f>
+        <v>951.21292622759984</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="U3" t="s">
+        <v>150</v>
+      </c>
+      <c r="V3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>30.25</v>
       </c>
@@ -552,14 +1113,61 @@
         <v>0.29644999999999999</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
+        <f>D4/1000</f>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G4">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D4">
+        <v>99</v>
+      </c>
+      <c r="F4">
+        <v>30.25</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.29644999999999999</v>
+      </c>
+      <c r="H4">
+        <f>F4^2</f>
+        <v>915.0625</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" ref="I4:I12" si="0">G4^2</f>
+        <v>8.788260249999999E-2</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" ref="J4:J12" si="1">F4*G4</f>
+        <v>8.9676124999999995</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L12" si="2">G4-3.0335*F4</f>
+        <v>-91.466925000000003</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M12" si="3">L4^2</f>
+        <v>8366.1983689556255</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="U4" t="s">
+        <v>152</v>
+      </c>
+      <c r="V4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>50.27</v>
       </c>
@@ -567,14 +1175,61 @@
         <v>0.49264599999999997</v>
       </c>
       <c r="C5">
+        <f>D5/1000</f>
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="D5">
+        <v>163</v>
+      </c>
+      <c r="F5">
+        <v>50.27</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.49264599999999997</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" ref="H5:H12" si="4">F5^2</f>
+        <v>2527.0729000000001</v>
+      </c>
+      <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="G5">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0.24270008131599996</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="1"/>
+        <v>24.765314419999999</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>-152.00139899999999</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>23104.425297957197</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="U5" t="s">
+        <v>154</v>
+      </c>
+      <c r="V5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>70.239999999999995</v>
       </c>
@@ -582,14 +1237,61 @@
         <v>0.68835199999999996</v>
       </c>
       <c r="C6">
+        <f>D6/1000</f>
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="D6">
+        <v>227</v>
+      </c>
+      <c r="F6">
+        <v>70.239999999999995</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.68835199999999996</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="4"/>
+        <v>4933.6575999999995</v>
+      </c>
+      <c r="I6" s="2">
         <f t="shared" si="0"/>
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="G6">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0.47382847590399996</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="1"/>
+        <v>48.349844479999994</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>-212.38468799999998</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>45107.255696857334</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="U6" t="s">
+        <v>156</v>
+      </c>
+      <c r="V6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>80.2</v>
       </c>
@@ -597,14 +1299,61 @@
         <v>0.78595999999999999</v>
       </c>
       <c r="C7">
+        <f>D7/1000</f>
+        <v>0.26</v>
+      </c>
+      <c r="D7">
+        <v>260</v>
+      </c>
+      <c r="F7">
+        <v>80.2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.78595999999999999</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="4"/>
+        <v>6432.0400000000009</v>
+      </c>
+      <c r="I7" s="2">
         <f t="shared" si="0"/>
-        <v>0.26</v>
-      </c>
-      <c r="G7">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0.61773312159999993</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="1"/>
+        <v>63.033992000000005</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>-242.50074000000004</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>58806.608900547617</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="U7" t="s">
+        <v>158</v>
+      </c>
+      <c r="V7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>90.22</v>
       </c>
@@ -612,14 +1361,61 @@
         <v>0.88415600000000005</v>
       </c>
       <c r="C8">
+        <f>D8/1000</f>
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="D8">
+        <v>291</v>
+      </c>
+      <c r="F8">
+        <v>90.22</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.88415600000000005</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="4"/>
+        <v>8139.6484</v>
+      </c>
+      <c r="I8" s="2">
         <f t="shared" si="0"/>
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="G8">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0.78173183233600008</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="1"/>
+        <v>79.768554320000007</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>-272.79821399999997</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>74418.865561589788</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="R8" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="U8" t="s">
+        <v>160</v>
+      </c>
+      <c r="V8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>100.01</v>
       </c>
@@ -627,14 +1423,61 @@
         <v>0.98009800000000002</v>
       </c>
       <c r="C9">
+        <f>D9/1000</f>
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="D9">
+        <v>322</v>
+      </c>
+      <c r="F9">
+        <v>100.01</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.98009800000000002</v>
+      </c>
+      <c r="H9" s="2">
+        <f>F9^2</f>
+        <v>10002.000100000001</v>
+      </c>
+      <c r="I9" s="2">
         <f t="shared" si="0"/>
-        <v>0.32200000000000001</v>
-      </c>
-      <c r="G9">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0.960592089604</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="1"/>
+        <v>98.019600980000007</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>-302.400237</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>91445.903337656171</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="U9" t="s">
+        <v>162</v>
+      </c>
+      <c r="V9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>105.04</v>
       </c>
@@ -642,14 +1485,61 @@
         <v>1.0293920000000001</v>
       </c>
       <c r="C10">
+        <f>D10/1000</f>
+        <v>0.34</v>
+      </c>
+      <c r="D10">
+        <v>340</v>
+      </c>
+      <c r="F10">
+        <v>105.04</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1.0293920000000001</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="4"/>
+        <v>11033.401600000001</v>
+      </c>
+      <c r="I10" s="2">
         <f t="shared" si="0"/>
-        <v>0.34</v>
-      </c>
-      <c r="G10">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+        <v>1.0596478896640003</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="1"/>
+        <v>108.12733568000002</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>-317.60944800000004</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>100875.76145886473</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="S10" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="U10" t="s">
+        <v>164</v>
+      </c>
+      <c r="V10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>110.07</v>
       </c>
@@ -657,14 +1547,61 @@
         <v>1.078686</v>
       </c>
       <c r="C11">
+        <f>D11/1000</f>
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="D11">
+        <v>355</v>
+      </c>
+      <c r="F11">
+        <v>110.07</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1.078686</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="4"/>
+        <v>12115.404899999998</v>
+      </c>
+      <c r="I11" s="2">
         <f t="shared" si="0"/>
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="G11">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+        <v>1.1635634865960001</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="1"/>
+        <v>118.73096801999999</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>-332.81865899999997</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>110768.25977855826</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="U11" t="s">
+        <v>166</v>
+      </c>
+      <c r="V11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>115.15</v>
       </c>
@@ -672,17 +1609,99 @@
         <v>1.1284700000000001</v>
       </c>
       <c r="C12">
+        <f>D12/1000</f>
+        <v>0.372</v>
+      </c>
+      <c r="D12">
+        <v>372</v>
+      </c>
+      <c r="F12">
+        <v>115.15</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1.1284700000000001</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="4"/>
+        <v>13259.522500000001</v>
+      </c>
+      <c r="I12" s="2">
         <f t="shared" si="0"/>
-        <v>0.372</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+        <v>1.2734445409000001</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="1"/>
+        <v>129.94332050000003</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>-348.17905500000006</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>121228.65434069307</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="S12" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="U12" t="s">
+        <v>168</v>
+      </c>
+      <c r="V12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="H13" s="2">
+        <f>SUM(H3:H12)</f>
+        <v>69461.8505</v>
+      </c>
+      <c r="I13" s="2">
+        <f>SUM(I3:I12)</f>
+        <v>6.6711161220199999</v>
+      </c>
+      <c r="J13" s="2">
+        <f>SUM(J3:J12)</f>
+        <v>680.72613490000003</v>
+      </c>
+      <c r="M13">
+        <f>SUM(M3:M12)</f>
+        <v>635073.14566790743</v>
+      </c>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="S13" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="V13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="N17" s="1"/>
+      <c r="N17" s="10"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -691,189 +1710,452 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
         <v>6</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>7</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>8</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A19">
+      <c r="A19" s="2">
+        <f>J19/100</f>
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="B19" s="2">
+        <f>4*PI()^2*A19</f>
+        <v>4.0267985956444576</v>
+      </c>
+      <c r="C19" s="3">
+        <v>4.24</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0.17977599999999999</v>
+      </c>
+      <c r="F19">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J19">
         <v>10.199999999999999</v>
       </c>
-      <c r="B19" s="3">
-        <v>4.24</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0.17977599999999999</v>
-      </c>
-      <c r="E19">
-        <v>2.1000000000000001E-2</v>
+      <c r="L19" t="s">
+        <v>74</v>
+      </c>
+      <c r="M19" t="s">
+        <v>71</v>
+      </c>
+      <c r="N19" t="s">
+        <v>28</v>
+      </c>
+      <c r="O19" t="s">
+        <v>29</v>
+      </c>
+      <c r="P19" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A20">
+      <c r="A20" s="2">
+        <f t="shared" ref="A20:A27" si="5">J20/100</f>
+        <v>0.30249999999999999</v>
+      </c>
+      <c r="B20" s="2">
+        <f>4*PI()^2*A20</f>
+        <v>11.942221325318123</v>
+      </c>
+      <c r="C20" s="3">
+        <v>7.07</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0.49984899999999999</v>
+      </c>
+      <c r="F20">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J20">
         <v>30.25</v>
       </c>
-      <c r="B20" s="3">
-        <v>7.07</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0.70699999999999996</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0.49984899999999999</v>
-      </c>
-      <c r="E20">
-        <v>3.5000000000000003E-2</v>
+      <c r="L20" t="s">
+        <v>75</v>
+      </c>
+      <c r="M20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N20" t="s">
+        <v>32</v>
+      </c>
+      <c r="O20" t="s">
+        <v>33</v>
+      </c>
+      <c r="P20" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A21">
+      <c r="A21" s="2">
+        <f t="shared" si="5"/>
+        <v>0.50270000000000004</v>
+      </c>
+      <c r="B21" s="2">
+        <f t="shared" ref="B21:B28" si="6">4*PI()^2*A21</f>
+        <v>19.845800529710484</v>
+      </c>
+      <c r="C21" s="3">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0.71740899999999996</v>
+      </c>
+      <c r="F21">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="J21">
         <v>50.27</v>
       </c>
-      <c r="B21" s="3">
-        <v>8.4700000000000006</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0.84699999999999998</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0.71740899999999996</v>
-      </c>
-      <c r="E21">
-        <v>4.2000000000000003E-2</v>
+      <c r="L21" t="s">
+        <v>76</v>
+      </c>
+      <c r="M21" t="s">
+        <v>72</v>
+      </c>
+      <c r="N21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O21" t="s">
+        <v>36</v>
+      </c>
+      <c r="P21" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A22">
+      <c r="A22" s="2">
+        <f t="shared" si="5"/>
+        <v>0.70239999999999991</v>
+      </c>
+      <c r="B22" s="2">
+        <f t="shared" si="6"/>
+        <v>27.729640525300656</v>
+      </c>
+      <c r="C22" s="3">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.997</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0.99400900000000003</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="J22">
         <v>70.239999999999995</v>
       </c>
-      <c r="B22" s="3">
-        <v>9.9700000000000006</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0.997</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0.99400900000000003</v>
-      </c>
-      <c r="E22">
-        <v>0.05</v>
+      <c r="L22" t="s">
+        <v>77</v>
+      </c>
+      <c r="M22" t="s">
+        <v>39</v>
+      </c>
+      <c r="N22" t="s">
+        <v>40</v>
+      </c>
+      <c r="O22" t="s">
+        <v>41</v>
+      </c>
+      <c r="P22" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A23">
+      <c r="A23" s="2">
+        <f t="shared" si="5"/>
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="B23" s="2">
+        <f t="shared" si="6"/>
+        <v>31.661690918694664</v>
+      </c>
+      <c r="C23" s="3">
+        <v>10.56</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1.056</v>
+      </c>
+      <c r="E23" s="9">
+        <v>1.1151359999999999</v>
+      </c>
+      <c r="F23">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="J23">
         <v>80.2</v>
       </c>
-      <c r="B23" s="3">
-        <v>10.56</v>
-      </c>
-      <c r="C23" s="4">
-        <v>1.056</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1.1151359999999999</v>
-      </c>
-      <c r="E23">
-        <v>5.2999999999999999E-2</v>
+      <c r="L23" t="s">
+        <v>78</v>
+      </c>
+      <c r="M23" t="s">
+        <v>43</v>
+      </c>
+      <c r="N23" t="s">
+        <v>44</v>
+      </c>
+      <c r="O23" t="s">
+        <v>45</v>
+      </c>
+      <c r="P23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A24">
+      <c r="A24" s="2">
+        <f t="shared" si="5"/>
+        <v>0.9022</v>
+      </c>
+      <c r="B24" s="2">
+        <f t="shared" si="6"/>
+        <v>35.617428362651275</v>
+      </c>
+      <c r="C24" s="3">
+        <v>11.22</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1.1220000000000001</v>
+      </c>
+      <c r="E24" s="9">
+        <v>1.2588839999999999</v>
+      </c>
+      <c r="F24">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="J24">
         <v>90.22</v>
       </c>
-      <c r="B24" s="3">
-        <v>11.22</v>
-      </c>
-      <c r="C24" s="4">
-        <v>1.1220000000000001</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1.2588839999999999</v>
-      </c>
-      <c r="E24">
-        <v>5.6000000000000001E-2</v>
+      <c r="L24" t="s">
+        <v>79</v>
+      </c>
+      <c r="M24" t="s">
+        <v>48</v>
+      </c>
+      <c r="N24" t="s">
+        <v>49</v>
+      </c>
+      <c r="O24" t="s">
+        <v>50</v>
+      </c>
+      <c r="P24" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A25">
+      <c r="A25" s="2">
+        <f t="shared" si="5"/>
+        <v>1.0001</v>
+      </c>
+      <c r="B25" s="2">
+        <f t="shared" si="6"/>
+        <v>39.482365446117868</v>
+      </c>
+      <c r="C25" s="3">
+        <v>11.72</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1.1719999999999999</v>
+      </c>
+      <c r="E25" s="9">
+        <v>1.3735839999999999</v>
+      </c>
+      <c r="F25">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="J25">
         <v>100.01</v>
       </c>
-      <c r="B25" s="3">
-        <v>11.72</v>
-      </c>
-      <c r="C25" s="4">
-        <v>1.1719999999999999</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1.3735839999999999</v>
-      </c>
-      <c r="E25">
-        <v>5.8999999999999997E-2</v>
+      <c r="L25" t="s">
+        <v>80</v>
+      </c>
+      <c r="M25" t="s">
+        <v>53</v>
+      </c>
+      <c r="N25" t="s">
+        <v>54</v>
+      </c>
+      <c r="O25" t="s">
+        <v>55</v>
+      </c>
+      <c r="P25" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A26">
+      <c r="A26" s="2">
+        <f t="shared" si="5"/>
+        <v>1.0504</v>
+      </c>
+      <c r="B26" s="2">
+        <f t="shared" si="6"/>
+        <v>41.46812985161705</v>
+      </c>
+      <c r="C26" s="3">
+        <v>12.07</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1.2070000000000001</v>
+      </c>
+      <c r="E26" s="9">
+        <v>1.4568490000000001</v>
+      </c>
+      <c r="F26" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="J26">
         <v>105.04</v>
       </c>
-      <c r="B26" s="3">
-        <v>12.07</v>
-      </c>
-      <c r="C26" s="4">
-        <v>1.2070000000000001</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1.4568490000000001</v>
-      </c>
-      <c r="E26">
-        <v>0.06</v>
+      <c r="L26" t="s">
+        <v>81</v>
+      </c>
+      <c r="M26" t="s">
+        <v>58</v>
+      </c>
+      <c r="N26" t="s">
+        <v>59</v>
+      </c>
+      <c r="O26" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A27">
+      <c r="A27" s="2">
+        <f t="shared" si="5"/>
+        <v>1.1007</v>
+      </c>
+      <c r="B27" s="2">
+        <f t="shared" si="6"/>
+        <v>43.453894257116225</v>
+      </c>
+      <c r="C27" s="3">
+        <v>12.19</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="E27" s="9">
+        <v>1.4859610000000001</v>
+      </c>
+      <c r="F27">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="J27">
         <v>110.07</v>
       </c>
-      <c r="B27" s="3">
-        <v>12.19</v>
-      </c>
-      <c r="C27" s="4">
-        <v>1.2190000000000001</v>
-      </c>
-      <c r="D27" s="3">
-        <v>1.4859610000000001</v>
-      </c>
-      <c r="E27">
-        <v>6.0999999999999999E-2</v>
+      <c r="L27" t="s">
+        <v>82</v>
+      </c>
+      <c r="M27" t="s">
+        <v>62</v>
+      </c>
+      <c r="N27" t="s">
+        <v>63</v>
+      </c>
+      <c r="O27" t="s">
+        <v>64</v>
+      </c>
+      <c r="P27" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A28">
+      <c r="A28" s="2">
+        <f>J28/100</f>
+        <v>1.1515</v>
+      </c>
+      <c r="B28" s="2">
+        <f t="shared" si="6"/>
+        <v>45.459397871417579</v>
+      </c>
+      <c r="C28" s="3">
+        <v>12.62</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1.262</v>
+      </c>
+      <c r="E28" s="9">
+        <v>1.5926439999999999</v>
+      </c>
+      <c r="F28">
+        <v>6.3E-2</v>
+      </c>
+      <c r="J28">
         <v>115.15</v>
       </c>
-      <c r="B28" s="3">
-        <v>12.62</v>
-      </c>
-      <c r="C28" s="4">
-        <v>1.262</v>
-      </c>
-      <c r="D28" s="3">
-        <v>1.5926439999999999</v>
-      </c>
-      <c r="E28">
-        <v>6.3E-2</v>
+      <c r="L28" t="s">
+        <v>83</v>
+      </c>
+      <c r="M28" t="s">
+        <v>73</v>
+      </c>
+      <c r="N28" t="s">
+        <v>67</v>
+      </c>
+      <c r="O28" t="s">
+        <v>68</v>
+      </c>
+      <c r="P28" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
@@ -881,7 +2163,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -898,7 +2180,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -915,7 +2197,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -932,7 +2214,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -949,7 +2231,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -966,7 +2248,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -976,8 +2258,26 @@
       <c r="C40">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D40" s="8">
+        <v>0.51724137931033998</v>
+      </c>
+      <c r="E40" s="13">
+        <v>6.2434381151783798E-2</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -987,8 +2287,26 @@
       <c r="C41">
         <v>0.39800000000000002</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D41" s="8">
+        <v>0.88679245283018804</v>
+      </c>
+      <c r="E41" s="13">
+        <v>6.2434381151783798E-2</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -998,13 +2316,31 @@
       <c r="C42">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D42" s="8">
+        <v>0.70588235294117596</v>
+      </c>
+      <c r="E42" s="13">
+        <v>5.1953892907165497E-2</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -1021,12 +2357,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0.38</v>
       </c>
       <c r="B48">
-        <f>A48*2</f>
+        <f t="shared" ref="B48:B57" si="7">A48*2</f>
         <v>0.76</v>
       </c>
       <c r="C48">
@@ -1046,18 +2382,18 @@
         <v>0.4</v>
       </c>
       <c r="B49">
-        <f>A49*2</f>
+        <f t="shared" si="7"/>
         <v>0.8</v>
       </c>
       <c r="C49">
         <v>0.28260999999999997</v>
       </c>
       <c r="D49">
-        <f t="shared" ref="D49:D57" si="1">C49^2</f>
+        <f t="shared" ref="D49:D57" si="8">C49^2</f>
         <v>7.986841209999998E-2</v>
       </c>
       <c r="E49" s="7">
-        <f t="shared" ref="E49:E57" si="2">0.00002 *C49</f>
+        <f t="shared" ref="E49:E57" si="9">0.00002 *C49</f>
         <v>5.6521999999999999E-6</v>
       </c>
     </row>
@@ -1066,18 +2402,18 @@
         <v>0.42</v>
       </c>
       <c r="B50">
-        <f>A50*2</f>
+        <f t="shared" si="7"/>
         <v>0.84</v>
       </c>
       <c r="C50">
         <v>0.29176000000000002</v>
       </c>
       <c r="D50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>8.5123897600000012E-2</v>
       </c>
       <c r="E50" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>5.8352000000000005E-6</v>
       </c>
     </row>
@@ -1086,18 +2422,18 @@
         <v>0.46</v>
       </c>
       <c r="B51">
-        <f>A51*2</f>
+        <f t="shared" si="7"/>
         <v>0.92</v>
       </c>
       <c r="C51">
         <v>0.29593000000000003</v>
       </c>
       <c r="D51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>8.7574564900000013E-2</v>
       </c>
       <c r="E51" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>5.9186000000000012E-6</v>
       </c>
     </row>
@@ -1106,18 +2442,18 @@
         <v>0.48</v>
       </c>
       <c r="B52">
-        <f>A52*2</f>
+        <f t="shared" si="7"/>
         <v>0.96</v>
       </c>
       <c r="C52">
         <v>0.30415999999999999</v>
       </c>
       <c r="D52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>9.2513305599999998E-2</v>
       </c>
       <c r="E52" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>6.0832000000000005E-6</v>
       </c>
     </row>
@@ -1126,18 +2462,18 @@
         <v>0.5</v>
       </c>
       <c r="B53">
-        <f>A53*2</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C53">
         <v>0.31176999999999999</v>
       </c>
       <c r="D53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>9.7200532899999997E-2</v>
       </c>
       <c r="E53" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>6.2354000000000005E-6</v>
       </c>
     </row>
@@ -1146,18 +2482,18 @@
         <v>0.52</v>
       </c>
       <c r="B54">
-        <f>A54*2</f>
+        <f t="shared" si="7"/>
         <v>1.04</v>
       </c>
       <c r="C54">
         <v>0.31879999999999997</v>
       </c>
       <c r="D54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.10163343999999998</v>
       </c>
       <c r="E54" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>6.3759999999999996E-6</v>
       </c>
     </row>
@@ -1166,18 +2502,18 @@
         <v>0.54</v>
       </c>
       <c r="B55">
-        <f>A55*2</f>
+        <f t="shared" si="7"/>
         <v>1.08</v>
       </c>
       <c r="C55">
         <v>0.32951999999999998</v>
       </c>
       <c r="D55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.10858343039999999</v>
       </c>
       <c r="E55" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>6.5904000000000005E-6</v>
       </c>
     </row>
@@ -1186,18 +2522,18 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="B56">
-        <f>A56*2</f>
+        <f t="shared" si="7"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="C56">
         <v>0.33338000000000001</v>
       </c>
       <c r="D56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.1111422244</v>
       </c>
       <c r="E56" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>6.6676000000000003E-6</v>
       </c>
     </row>
@@ -1206,18 +2542,18 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="B57">
-        <f>A57*2</f>
+        <f t="shared" si="7"/>
         <v>1.1599999999999999</v>
       </c>
       <c r="C57">
         <v>0.34094000000000002</v>
       </c>
       <c r="D57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0.11624008360000002</v>
       </c>
       <c r="E57" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>6.8188000000000007E-6</v>
       </c>
     </row>
